--- a/data/ProductDetails.xlsx
+++ b/data/ProductDetails.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Password</t>
   </si>
@@ -40,9 +40,6 @@
     <t>Samsung Electronics</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Details</t>
   </si>
   <si>
@@ -53,6 +50,15 @@
   </si>
   <si>
     <t>Abcd@12345</t>
+  </si>
+  <si>
+    <t>Search Keyword</t>
+  </si>
+  <si>
+    <t>65-inch TV</t>
+  </si>
+  <si>
+    <t>Product Details</t>
   </si>
 </sst>
 </file>
@@ -135,9 +141,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -446,7 +452,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E2" sqref="A1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,9 +461,9 @@
     <col min="2" max="2" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="63" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -476,39 +482,43 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="4">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
